--- a/tests/eindhoven-500/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaal_laag.xlsx
+++ b/tests/eindhoven-500/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaal_laag.xlsx
@@ -6259,7 +6259,7 @@
         <v>17686.22825838145</v>
       </c>
       <c r="C227">
-        <v>8266.22275353483</v>
+        <v>8266.222753534832</v>
       </c>
       <c r="D227">
         <v>13734.09450939733</v>
@@ -11231,7 +11231,7 @@
         <v>2057.46170516967</v>
       </c>
       <c r="E418">
-        <v>6793.46752536198</v>
+        <v>6793.467525361981</v>
       </c>
       <c r="F418">
         <v>4649.741804034738</v>
@@ -11240,7 +11240,7 @@
         <v>6190.611871712053</v>
       </c>
       <c r="H418">
-        <v>7371.467879951818</v>
+        <v>7371.467879951819</v>
       </c>
     </row>
     <row r="419" spans="1:8">
